--- a/datasets/M1_riskprem_expost_log.xlsx
+++ b/datasets/M1_riskprem_expost_log.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,659 +654,609 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41365</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>41518</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.03141295651141044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41395</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>41548</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.02620661982102517</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41426</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>41579</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01837031996389265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41456</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>41609</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01963161532946802</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41487</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>41640</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03138136981246597</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41518</v>
+        <v>41671</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.03141295651141044</v>
+        <v>0.05135205041049405</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41548</v>
+        <v>41699</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02620661982102517</v>
+        <v>0.01557974326615015</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41579</v>
+        <v>41730</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01837031996389265</v>
+        <v>-0.005770388340232447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41609</v>
+        <v>41760</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01963161532946802</v>
+        <v>-0.01494094802215987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41640</v>
+        <v>41791</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03138136981246597</v>
+        <v>-0.01677271761210308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41671</v>
+        <v>41821</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05135205041049405</v>
+        <v>0.005572466389059874</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41699</v>
+        <v>41852</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01557974326615015</v>
+        <v>0.02683357131314731</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41730</v>
+        <v>41883</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.005770388340232447</v>
+        <v>-0.01079510678672951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41760</v>
+        <v>41913</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01494094802215987</v>
+        <v>-0.01008143033741267</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41791</v>
+        <v>41944</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01677271761210308</v>
+        <v>-0.0088028329399511</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41821</v>
+        <v>41974</v>
       </c>
       <c r="B43" t="n">
-        <v>0.005572466389059874</v>
+        <v>0.0122642286516522</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41852</v>
+        <v>42005</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02683357131314731</v>
+        <v>0.06774094404961047</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41883</v>
+        <v>42036</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01079510678672951</v>
+        <v>-0.03343015117885551</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41913</v>
+        <v>42064</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.01008143033741267</v>
+        <v>0.009418671894823418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41944</v>
+        <v>42095</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0088028329399511</v>
+        <v>0.00711757362536241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41974</v>
+        <v>42125</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0122642286516522</v>
+        <v>0.03340346972195729</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42005</v>
+        <v>42156</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06774094404961047</v>
+        <v>-0.003098003120254846</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42036</v>
+        <v>42186</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.03343015117885551</v>
+        <v>-0.0543219590012203</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42064</v>
+        <v>42217</v>
       </c>
       <c r="B51" t="n">
-        <v>0.009418671894823418</v>
+        <v>-0.01174645341286579</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42095</v>
+        <v>42248</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00711757362536241</v>
+        <v>0.01559869312446891</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42125</v>
+        <v>42278</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03340346972195729</v>
+        <v>-0.04888288387529086</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42156</v>
+        <v>42309</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.003098003120254846</v>
+        <v>-0.002138471489624303</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42186</v>
+        <v>42339</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0543219590012203</v>
+        <v>0.02660888121600378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42217</v>
+        <v>42370</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01174645341286579</v>
+        <v>-0.007633023752485298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42248</v>
+        <v>42401</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01559869312446891</v>
+        <v>0.08729880845363618</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42278</v>
+        <v>42430</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.04888288387529086</v>
+        <v>-0.0360118214601706</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42309</v>
+        <v>42461</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.002138471489624303</v>
+        <v>-0.0001814740033117007</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42339</v>
+        <v>42491</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02660888121600378</v>
+        <v>-0.008537022287154037</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42370</v>
+        <v>42522</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.007633023752485298</v>
+        <v>-0.03506610787612504</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42401</v>
+        <v>42552</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08729880845363618</v>
+        <v>-0.004925311712794769</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42430</v>
+        <v>42583</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.0360118214601706</v>
+        <v>0.007884262072121034</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42461</v>
+        <v>42614</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.0001814740033117007</v>
+        <v>-0.0147021047788637</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42491</v>
+        <v>42644</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.008537022287154037</v>
+        <v>-0.06836413636391422</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42522</v>
+        <v>42675</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.03506610787612504</v>
+        <v>0.004465741065918102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42552</v>
+        <v>42705</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.004925311712794769</v>
+        <v>0.04111650150859442</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42583</v>
+        <v>42736</v>
       </c>
       <c r="B68" t="n">
-        <v>0.007884262072121034</v>
+        <v>-0.06808864561811259</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42614</v>
+        <v>42767</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0147021047788637</v>
+        <v>0.01560660166326692</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42644</v>
+        <v>42795</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.06836413636391422</v>
+        <v>0.04042761999225472</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42675</v>
+        <v>42826</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004465741065918102</v>
+        <v>0.01141737653366212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42705</v>
+        <v>42856</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04111650150859442</v>
+        <v>0.01396321963174432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42736</v>
+        <v>42887</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.06808864561811259</v>
+        <v>0.002423591822834391</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42767</v>
+        <v>42917</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01560660166326692</v>
+        <v>-0.004890278733215386</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42795</v>
+        <v>42948</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04042761999225472</v>
+        <v>0.01068840277440778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42826</v>
+        <v>42979</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01141737653366212</v>
+        <v>-0.002879440716888412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42856</v>
+        <v>43009</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01396321963174432</v>
+        <v>0.08747260515118092</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42887</v>
+        <v>43040</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002423591822834391</v>
+        <v>0.004200789002198198</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42917</v>
+        <v>43070</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.004890278733215386</v>
+        <v>0.06278031664558316</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42948</v>
+        <v>43101</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01068840277440778</v>
+        <v>0.119897664420299</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42979</v>
+        <v>43132</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.002879440716888412</v>
+        <v>0.003586258750893105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43009</v>
+        <v>43160</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08747260515118092</v>
+        <v>-0.01413067997013438</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43040</v>
+        <v>43191</v>
       </c>
       <c r="B83" t="n">
-        <v>0.004200789002198198</v>
+        <v>0.01356955884904581</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43070</v>
+        <v>43221</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06278031664558316</v>
+        <v>-0.008994114712999232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43101</v>
+        <v>43252</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119897664420299</v>
+        <v>-0.02728916343269161</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43132</v>
+        <v>43282</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003586258750893105</v>
+        <v>-0.02721946902653497</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43160</v>
+        <v>43313</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.01413067997013438</v>
+        <v>-0.03347940307077731</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01356955884904581</v>
+        <v>-0.000601920778973952</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43221</v>
+        <v>43374</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.008994114712999232</v>
+        <v>0.03314552629227289</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43252</v>
+        <v>43405</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02728916343269161</v>
+        <v>0.01287359574781259</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43282</v>
+        <v>43435</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.02721946902653497</v>
+        <v>0.05232973776229254</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43313</v>
+        <v>43466</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.03347940307077731</v>
+        <v>0.05973195349796286</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43344</v>
+        <v>43497</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.000601920778973952</v>
+        <v>0.09418414462415614</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43374</v>
+        <v>43525</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03314552629227289</v>
+        <v>0.08810565649863128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43405</v>
+        <v>43556</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01287359574781259</v>
+        <v>0.0003296361472427544</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="B96" t="n">
-        <v>0.05232973776229254</v>
+        <v>0.02171244101352594</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43466</v>
+        <v>43617</v>
       </c>
       <c r="B97" t="n">
-        <v>0.05973195349796286</v>
+        <v>0.04331136040654261</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43497</v>
+        <v>43647</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09418414462415614</v>
+        <v>-0.0179272026974392</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43525</v>
+        <v>43678</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08810565649863128</v>
+        <v>0.04376758160263639</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43556</v>
+        <v>43709</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0003296361472427544</v>
+        <v>0.03034054832544274</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43586</v>
+        <v>43739</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02171244101352594</v>
+        <v>0.04259208416845459</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43617</v>
+        <v>43770</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04331136040654261</v>
+        <v>0.02773807273321303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43647</v>
+        <v>43800</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.0179272026974392</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.04376758160263639</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.03034054832544274</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.04259208416845459</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43770</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.02773807273321303</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43800</v>
-      </c>
-      <c r="B108" t="n">
         <v>0.04336169257095759</v>
       </c>
     </row>
